--- a/Semester 1/TUGAS VLOOKUP & HLOOKUP.xlsx
+++ b/Semester 1/TUGAS VLOOKUP & HLOOKUP.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10107"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/Project/MyProjectOnGitHub/tugas-kuliah-software-terapan/Semester 1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A341A1D9-CF00-3446-B9F1-501893F4C554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="13260"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="File Latihan" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'File Latihan'!$A$1:$B$11</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -101,15 +117,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,7 +134,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,155 +142,11 @@
       <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,192 +155,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -495,251 +183,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -754,66 +200,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1071,31 +473,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.2890625" customWidth="1"/>
-    <col min="3" max="5" width="16.859375" customWidth="1"/>
-    <col min="7" max="7" width="16.703125" customWidth="1"/>
-    <col min="8" max="8" width="15.6015625" customWidth="1"/>
-    <col min="9" max="9" width="15.2265625" customWidth="1"/>
-    <col min="10" max="10" width="12.5390625" customWidth="1"/>
-    <col min="12" max="12" width="17.1953125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="5" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>44261</v>
       </c>
@@ -1186,7 +588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>44257</v>
       </c>
@@ -1218,7 +620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>44259</v>
       </c>
@@ -1226,7 +628,7 @@
         <v>104</v>
       </c>
       <c r="C4" s="5" t="str">
-        <f t="shared" ref="C3:C11" si="2">VLOOKUP(B4,$G$2:$J$11,2,FALSE)</f>
+        <f t="shared" ref="C4:C11" si="2">VLOOKUP(B4,$G$2:$J$11,2,FALSE)</f>
         <v>Dewi</v>
       </c>
       <c r="D4" s="5" t="str">
@@ -1250,7 +652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>44260</v>
       </c>
@@ -1282,7 +684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>44265</v>
       </c>
@@ -1314,7 +716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>44258</v>
       </c>
@@ -1346,7 +748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>44263</v>
       </c>
@@ -1378,7 +780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>44264</v>
       </c>
@@ -1410,7 +812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>44256</v>
       </c>
@@ -1442,7 +844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>44262</v>
       </c>
@@ -1474,35 +876,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1" spans="1:1">
+    <row r="14" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1" spans="1:1">
+    <row r="15" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
       <selection activeCell="E15" sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="5" width="15.4296875" customWidth="1"/>
+    <col min="2" max="5" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1516,7 +916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>101</v>
       </c>
@@ -1530,7 +930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>102</v>
       </c>
@@ -1544,7 +944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>103</v>
       </c>
@@ -1558,7 +958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>104</v>
       </c>
@@ -1572,7 +972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>105</v>
       </c>
@@ -1586,7 +986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>106</v>
       </c>
@@ -1600,7 +1000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>107</v>
       </c>
@@ -1614,7 +1014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>108</v>
       </c>
@@ -1628,7 +1028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>109</v>
       </c>
@@ -1642,7 +1042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>110</v>
       </c>
@@ -1656,7 +1056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -1673,7 +1073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -1692,6 +1092,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>